--- a/excle/serverconf.xlsx
+++ b/excle/serverconf.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,38 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ServerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutAddr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxConnect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendMaxsize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecMaxsize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收包最大字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,6 +79,50 @@
   </si>
   <si>
     <t>GameServer_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server_kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_prot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_connect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_maxsize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_maxsize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write_cap_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接写的包队列大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -475,35 +487,39 @@
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,8 +544,11 @@
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -552,10 +571,13 @@
         <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -563,10 +585,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>20001</v>
@@ -580,8 +602,11 @@
       <c r="H4" s="1">
         <v>65000</v>
       </c>
+      <c r="I4" s="1">
+        <v>200</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -589,10 +614,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
         <v>20002</v>
@@ -606,8 +631,11 @@
       <c r="H5" s="1">
         <v>65000</v>
       </c>
+      <c r="I5" s="1">
+        <v>200</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -615,10 +643,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1">
         <v>20003</v>
@@ -632,8 +660,11 @@
       <c r="H6" s="1">
         <v>65000</v>
       </c>
+      <c r="I6" s="1">
+        <v>200</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
@@ -641,10 +672,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1">
         <v>20004</v>
@@ -657,6 +688,9 @@
       </c>
       <c r="H7" s="1">
         <v>65000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
